--- a/biology/Botanique/Versowood/Versowood.xlsx
+++ b/biology/Botanique/Versowood/Versowood.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Versowood Group Oy (avant 2005 Vierumäen Teollisuus Oy) est une entreprise de transformation du bois située dans le quartier de Vierumäki à Heinola en Finlande.
@@ -512,12 +524,14 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fondé en 1946, Versowood est le plus grand producteur et transformateur privé de bois de Finlande[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondé en 1946, Versowood est le plus grand producteur et transformateur privé de bois de Finlande.
 En 1997, Versowood acquiert la scierie d'Otava à Mikkeli qui devient une filiale du Groupe.
 En 2004 Versowood achète Paloheimo Wood Oy, composé d'une scierie, d'une usine de rabotage, avec toutes ses installations de production.
-En 2014 Versowood achète la scierie d'Hankasalmi de Vapo Timber Oy[3].
+En 2014 Versowood achète la scierie d'Hankasalmi de Vapo Timber Oy.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Branches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les branches du groupes sont présentes dans les lieux suivants[4]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les branches du groupes sont présentes dans les lieux suivants:
 Vierumäki
 Riihimäki
 Otava
